--- a/nodejs/seeds/result.xlsx
+++ b/nodejs/seeds/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMX FILE\utem_degree\year2sem2\workshop2\build_goal_web\nodejs\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CEB4766-9EC2-472B-8C33-B55628AB8A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6FA622-01AB-424D-8EB0-52D8EAAB743F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="4836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="4836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="486">
   <si>
     <t>Label</t>
   </si>
@@ -848,12 +848,642 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>A level</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Care</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Couple</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Enthusiasm</t>
+  </si>
+  <si>
+    <t>Entreprise</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Fact</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Imagination</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Independence</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Nation</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Official</t>
+  </si>
+  <si>
+    <t>Opinion</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Reality</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>Tradition</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>Chinese New Year</t>
+  </si>
+  <si>
+    <t>Hari Raya</t>
+  </si>
+  <si>
+    <t>Deepavali</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1687,10 +2317,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9582,6 +10214,6357 @@
         <v>2.7E-2</v>
       </c>
     </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C273">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D273">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E273">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F273">
+        <v>0.12</v>
+      </c>
+      <c r="G273">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H273">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I273">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274">
+        <v>0.186</v>
+      </c>
+      <c r="C274">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D274">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E274">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F274">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G274">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H274">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I274">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C275">
+        <v>2E-3</v>
+      </c>
+      <c r="D275">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E275">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F275">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G275">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H275">
+        <v>0.04</v>
+      </c>
+      <c r="I275">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C276">
+        <v>0.125</v>
+      </c>
+      <c r="D276">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E276">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F276">
+        <v>0.05</v>
+      </c>
+      <c r="G276">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H276">
+        <v>0.125</v>
+      </c>
+      <c r="I276">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C277">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D277">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E277">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F277">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G277">
+        <v>0.113</v>
+      </c>
+      <c r="H277">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I277">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C278">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D278">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E278">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F278">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G278">
+        <v>0.08</v>
+      </c>
+      <c r="H278">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I278">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C279">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D279">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E279">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="F279">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G279">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H279">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I279">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C280">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D280">
+        <v>0.115</v>
+      </c>
+      <c r="E280">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F280">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G280">
+        <v>0.156</v>
+      </c>
+      <c r="H280">
+        <v>0.107</v>
+      </c>
+      <c r="I280">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C281">
+        <v>2E-3</v>
+      </c>
+      <c r="D281">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E281">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F281">
+        <v>2E-3</v>
+      </c>
+      <c r="G281">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H281">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I281">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0.999</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C283">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D283">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E283">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F283">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G283">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H283">
+        <v>0.249</v>
+      </c>
+      <c r="I283">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C284">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D284">
+        <v>2E-3</v>
+      </c>
+      <c r="E284">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F284">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G284">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H284">
+        <v>2E-3</v>
+      </c>
+      <c r="I284">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C285">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D285">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E285">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F285">
+        <v>0.186</v>
+      </c>
+      <c r="G285">
+        <v>0.123</v>
+      </c>
+      <c r="H285">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I285">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286">
+        <v>0.1</v>
+      </c>
+      <c r="C286">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D286">
+        <v>0.126</v>
+      </c>
+      <c r="E286">
+        <v>0.155</v>
+      </c>
+      <c r="F286">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G286">
+        <v>0.13</v>
+      </c>
+      <c r="H286">
+        <v>0.155</v>
+      </c>
+      <c r="I286">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287">
+        <v>0.112</v>
+      </c>
+      <c r="C287">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D287">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E287">
+        <v>0.109</v>
+      </c>
+      <c r="F287">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G287">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H287">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I287">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C288">
+        <v>0.312</v>
+      </c>
+      <c r="D288">
+        <v>0.108</v>
+      </c>
+      <c r="E288">
+        <v>0.105</v>
+      </c>
+      <c r="F288">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G288">
+        <v>0.113</v>
+      </c>
+      <c r="H288">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I288">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C289">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D289">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E289">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F289">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G289">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H289">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I289">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C290">
+        <v>0.23</v>
+      </c>
+      <c r="D290">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E290">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F290">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G290">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H290">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I290">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C291">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D291">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E291">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F291">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G291">
+        <v>0.02</v>
+      </c>
+      <c r="H291">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I291">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292">
+        <v>0.105</v>
+      </c>
+      <c r="C292">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D292">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E292">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F292">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G292">
+        <v>0.223</v>
+      </c>
+      <c r="H292">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I292">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>258</v>
+      </c>
+      <c r="B293">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C293">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D293">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E293">
+        <v>0.1</v>
+      </c>
+      <c r="F293">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G293">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H293">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I293">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C294">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D294">
+        <v>2E-3</v>
+      </c>
+      <c r="E294">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F294">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G294">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H294">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I294">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C295">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D295">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E295">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F295">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G295">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H295">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I295">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>0.02</v>
+      </c>
+      <c r="C296">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D296">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E296">
+        <v>0.02</v>
+      </c>
+      <c r="F296">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G296">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H296">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I296">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>0.629</v>
+      </c>
+      <c r="C297">
+        <v>0.11</v>
+      </c>
+      <c r="D297">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E297">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F297">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G297">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H297">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I297">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C298">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D298">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E298">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F298">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G298">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H298">
+        <v>0.05</v>
+      </c>
+      <c r="I298">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>0.125</v>
+      </c>
+      <c r="C299">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D299">
+        <v>0.111</v>
+      </c>
+      <c r="E299">
+        <v>0.105</v>
+      </c>
+      <c r="F299">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G299">
+        <v>0.126</v>
+      </c>
+      <c r="H299">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I299">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C300">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D300">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E300">
+        <v>0.09</v>
+      </c>
+      <c r="F300">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G300">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H300">
+        <v>0.12</v>
+      </c>
+      <c r="I300">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C301">
+        <v>0.109</v>
+      </c>
+      <c r="D301">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E301">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F301">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G301">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H301">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I301">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C302">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D302">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E302">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F302">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G302">
+        <v>0.109</v>
+      </c>
+      <c r="H302">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I302">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>0.12</v>
+      </c>
+      <c r="C303">
+        <v>0.105</v>
+      </c>
+      <c r="D303">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E303">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F303">
+        <v>0.17</v>
+      </c>
+      <c r="G303">
+        <v>0.12</v>
+      </c>
+      <c r="H303">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I303">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>0.108</v>
+      </c>
+      <c r="C304">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D304">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E304">
+        <v>0.107</v>
+      </c>
+      <c r="F304">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G304">
+        <v>0.124</v>
+      </c>
+      <c r="H304">
+        <v>0.11</v>
+      </c>
+      <c r="I304">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C305">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D305">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E305">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F305">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G305">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H305">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I305">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C306">
+        <v>0.03</v>
+      </c>
+      <c r="D306">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E306">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F306">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G306">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H306">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I306">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C307">
+        <v>0.02</v>
+      </c>
+      <c r="D307">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E307">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F307">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G307">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H307">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I307">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G308">
+        <v>1E-3</v>
+      </c>
+      <c r="H308">
+        <v>1E-3</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C309">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D309">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E309">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F309">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G309">
+        <v>0.104</v>
+      </c>
+      <c r="H309">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I309">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>0.122</v>
+      </c>
+      <c r="C310">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D310">
+        <v>0.1</v>
+      </c>
+      <c r="E310">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F310">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G310">
+        <v>0.182</v>
+      </c>
+      <c r="H310">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I310">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C311">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D311">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E311">
+        <v>0.159</v>
+      </c>
+      <c r="F311">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G311">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H311">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I311">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C312">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D312">
+        <v>0.47</v>
+      </c>
+      <c r="E312">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F312">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G312">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H312">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I312">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C313">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D313">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E313">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F313">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G313">
+        <v>0.128</v>
+      </c>
+      <c r="H313">
+        <v>0.111</v>
+      </c>
+      <c r="I313">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C314">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D314">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E314">
+        <v>0.104</v>
+      </c>
+      <c r="F314">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G314">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H314">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I314">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C315">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D315">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E315">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F315">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G315">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H315">
+        <v>0.04</v>
+      </c>
+      <c r="I315">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C316">
+        <v>0.19</v>
+      </c>
+      <c r="D316">
+        <v>0.16</v>
+      </c>
+      <c r="E316">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F316">
+        <v>0.106</v>
+      </c>
+      <c r="G316">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H316">
+        <v>0.114</v>
+      </c>
+      <c r="I316">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317">
+        <v>0.105</v>
+      </c>
+      <c r="C317">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D317">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E317">
+        <v>0.115</v>
+      </c>
+      <c r="F317">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G317">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H317">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I317">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318">
+        <v>1E-3</v>
+      </c>
+      <c r="C318">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D318">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E318">
+        <v>1E-3</v>
+      </c>
+      <c r="F318">
+        <v>1E-3</v>
+      </c>
+      <c r="G318">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H318">
+        <v>1E-3</v>
+      </c>
+      <c r="I318">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C319">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D319">
+        <v>0.26</v>
+      </c>
+      <c r="E319">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F319">
+        <v>0.11</v>
+      </c>
+      <c r="G319">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H319">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I319">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C320">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D320">
+        <v>0.115</v>
+      </c>
+      <c r="E320">
+        <v>0.129</v>
+      </c>
+      <c r="F320">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G320">
+        <v>0.122</v>
+      </c>
+      <c r="H320">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I320">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C321">
+        <v>0.495</v>
+      </c>
+      <c r="D321">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E321">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F321">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G321">
+        <v>0.108</v>
+      </c>
+      <c r="H321">
+        <v>0.01</v>
+      </c>
+      <c r="I321">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C322">
+        <v>0.221</v>
+      </c>
+      <c r="D322">
+        <v>0.157</v>
+      </c>
+      <c r="E322">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F322">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G322">
+        <v>0.189</v>
+      </c>
+      <c r="H322">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I322">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324">
+        <v>0.49</v>
+      </c>
+      <c r="C324">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D324">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E324">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F324">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G324">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H324">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I324">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C325">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D325">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E325">
+        <v>0.1</v>
+      </c>
+      <c r="F325">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G325">
+        <v>0.112</v>
+      </c>
+      <c r="H325">
+        <v>0.12</v>
+      </c>
+      <c r="I325">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326">
+        <v>0.106</v>
+      </c>
+      <c r="C326">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D326">
+        <v>0.151</v>
+      </c>
+      <c r="E326">
+        <v>0.192</v>
+      </c>
+      <c r="F326">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G326">
+        <v>0.115</v>
+      </c>
+      <c r="H326">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I326">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>263</v>
+      </c>
+      <c r="B327">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C327">
+        <v>2E-3</v>
+      </c>
+      <c r="D327">
+        <v>1E-3</v>
+      </c>
+      <c r="E327">
+        <v>1E-3</v>
+      </c>
+      <c r="F327">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G327">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H327">
+        <v>2E-3</v>
+      </c>
+      <c r="I327">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C328">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D328">
+        <v>0.15</v>
+      </c>
+      <c r="E328">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F328">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G328">
+        <v>0.17</v>
+      </c>
+      <c r="H328">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I328">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C329">
+        <v>0.41</v>
+      </c>
+      <c r="D329">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E329">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F329">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G329">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H329">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I329">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331">
+        <v>0.223</v>
+      </c>
+      <c r="C331">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D331">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E331">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F331">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G331">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H331">
+        <v>0.123</v>
+      </c>
+      <c r="I331">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C332">
+        <v>0.161</v>
+      </c>
+      <c r="D332">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E332">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F332">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G332">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H332">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I332">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C333">
+        <v>0.05</v>
+      </c>
+      <c r="D333">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E333">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F333">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G333">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H333">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I333">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334">
+        <v>0.625</v>
+      </c>
+      <c r="C334">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D334">
+        <v>0.04</v>
+      </c>
+      <c r="E334">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F334">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G334">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H334">
+        <v>0.05</v>
+      </c>
+      <c r="I334">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C335">
+        <v>0.11</v>
+      </c>
+      <c r="D335">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E335">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F335">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G335">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H335">
+        <v>0.124</v>
+      </c>
+      <c r="I335">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C336">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D336">
+        <v>0.114</v>
+      </c>
+      <c r="E336">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F336">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G336">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H336">
+        <v>0.03</v>
+      </c>
+      <c r="I336">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C337">
+        <v>0.126</v>
+      </c>
+      <c r="D337">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E337">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F337">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G337">
+        <v>0.02</v>
+      </c>
+      <c r="H337">
+        <v>0.06</v>
+      </c>
+      <c r="I337">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C338">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D338">
+        <v>0.189</v>
+      </c>
+      <c r="E338">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F338">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G338">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H338">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I338">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339">
+        <v>0.22</v>
+      </c>
+      <c r="C339">
+        <v>0.1</v>
+      </c>
+      <c r="D339">
+        <v>0.08</v>
+      </c>
+      <c r="E339">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F339">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G339">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H339">
+        <v>0.111</v>
+      </c>
+      <c r="I339">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C340">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D340">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E340">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F340">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G340">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H340">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I340">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C341">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D341">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E341">
+        <v>0.125</v>
+      </c>
+      <c r="F341">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G341">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H341">
+        <v>0.124</v>
+      </c>
+      <c r="I341">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0.999</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>50</v>
+      </c>
+      <c r="B343">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C343">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D343">
+        <v>0.84</v>
+      </c>
+      <c r="E343">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F343">
+        <v>0.02</v>
+      </c>
+      <c r="G343">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H343">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I343">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>0.03</v>
+      </c>
+      <c r="C344">
+        <v>0.36</v>
+      </c>
+      <c r="D344">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E344">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F344">
+        <v>0.106</v>
+      </c>
+      <c r="G344">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H344">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I344">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C345">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D345">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E345">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F345">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G345">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H345">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I345">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>0.105</v>
+      </c>
+      <c r="C346">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D346">
+        <v>0.08</v>
+      </c>
+      <c r="E346">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F346">
+        <v>0.1</v>
+      </c>
+      <c r="G346">
+        <v>0.104</v>
+      </c>
+      <c r="H346">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I346">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C347">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D347">
+        <v>0.04</v>
+      </c>
+      <c r="E347">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F347">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G347">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H347">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I347">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C348">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D348">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E348">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F348">
+        <v>0.04</v>
+      </c>
+      <c r="G348">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H348">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I348">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C349">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D349">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E349">
+        <v>0.09</v>
+      </c>
+      <c r="F349">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G349">
+        <v>0.124</v>
+      </c>
+      <c r="H349">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I349">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>0.114</v>
+      </c>
+      <c r="C350">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D350">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E350">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F350">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G350">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H350">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I350">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0.996</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>2E-3</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C353">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D353">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E353">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F353">
+        <v>0.104</v>
+      </c>
+      <c r="G353">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H353">
+        <v>0.245</v>
+      </c>
+      <c r="I353">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>0.191</v>
+      </c>
+      <c r="C354">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D354">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E354">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F354">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G354">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H354">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I354">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C355">
+        <v>0.153</v>
+      </c>
+      <c r="D355">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E355">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F355">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G355">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H355">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I355">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C356">
+        <v>0.309</v>
+      </c>
+      <c r="D356">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E356">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F356">
+        <v>0.252</v>
+      </c>
+      <c r="G356">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H356">
+        <v>0.09</v>
+      </c>
+      <c r="I356">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C357">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D357">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E357">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F357">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G357">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H357">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I357">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>245</v>
+      </c>
+      <c r="B358">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C358">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D358">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E358">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F358">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G358">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H358">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I358">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>0.125</v>
+      </c>
+      <c r="C359">
+        <v>0.125</v>
+      </c>
+      <c r="D359">
+        <v>0.125</v>
+      </c>
+      <c r="E359">
+        <v>0.125</v>
+      </c>
+      <c r="F359">
+        <v>0.125</v>
+      </c>
+      <c r="G359">
+        <v>0.125</v>
+      </c>
+      <c r="H359">
+        <v>0.125</v>
+      </c>
+      <c r="I359">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C360">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D360">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E360">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F360">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G360">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H360">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I360">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C361">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D361">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E361">
+        <v>0.1</v>
+      </c>
+      <c r="F361">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G361">
+        <v>0.152</v>
+      </c>
+      <c r="H361">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I361">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C362">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D362">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E362">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F362">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="G362">
+        <v>0.107</v>
+      </c>
+      <c r="H362">
+        <v>0.03</v>
+      </c>
+      <c r="I362">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>0.627</v>
+      </c>
+      <c r="C363">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D363">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E363">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F363">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G363">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H363">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I363">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C364">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D364">
+        <v>0.113</v>
+      </c>
+      <c r="E364">
+        <v>0.13</v>
+      </c>
+      <c r="F364">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G364">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H364">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I364">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C365">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D365">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E365">
+        <v>0.06</v>
+      </c>
+      <c r="F365">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G365">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H365">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I365">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C366">
+        <v>0.436</v>
+      </c>
+      <c r="D366">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E366">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F366">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G366">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H366">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I366">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C367">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D367">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E367">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F367">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G367">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H367">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I367">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C368">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D368">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E368">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F368">
+        <v>0.104</v>
+      </c>
+      <c r="G368">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H368">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I368">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C369">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D369">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E369">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F369">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G369">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H369">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I369">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>0.18</v>
+      </c>
+      <c r="C370">
+        <v>0.121</v>
+      </c>
+      <c r="D370">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E370">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F370">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G370">
+        <v>0.125</v>
+      </c>
+      <c r="H370">
+        <v>0.153</v>
+      </c>
+      <c r="I370">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C371">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D371">
+        <v>0.113</v>
+      </c>
+      <c r="E371">
+        <v>0.155</v>
+      </c>
+      <c r="F371">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G371">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H371">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I371">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>0.113</v>
+      </c>
+      <c r="C372">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D372">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E372">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F372">
+        <v>0.114</v>
+      </c>
+      <c r="G372">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H372">
+        <v>0.122</v>
+      </c>
+      <c r="I372">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>1E-3</v>
+      </c>
+      <c r="G374">
+        <v>1E-3</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C375">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D375">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E375">
+        <v>0.1</v>
+      </c>
+      <c r="F375">
+        <v>0.15</v>
+      </c>
+      <c r="G375">
+        <v>0.115</v>
+      </c>
+      <c r="H375">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I375">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C376">
+        <v>0.186</v>
+      </c>
+      <c r="D376">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E376">
+        <v>0.153</v>
+      </c>
+      <c r="F376">
+        <v>0.111</v>
+      </c>
+      <c r="G376">
+        <v>0.123</v>
+      </c>
+      <c r="H376">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I376">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C377">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D377">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E377">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F377">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G377">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H377">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I377">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C378">
+        <v>0.128</v>
+      </c>
+      <c r="D378">
+        <v>0.114</v>
+      </c>
+      <c r="E378">
+        <v>0.123</v>
+      </c>
+      <c r="F378">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G378">
+        <v>0.122</v>
+      </c>
+      <c r="H378">
+        <v>0.122</v>
+      </c>
+      <c r="I378">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>0.151</v>
+      </c>
+      <c r="C379">
+        <v>0.189</v>
+      </c>
+      <c r="D379">
+        <v>0.115</v>
+      </c>
+      <c r="E379">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F379">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G379">
+        <v>0.106</v>
+      </c>
+      <c r="H379">
+        <v>0.106</v>
+      </c>
+      <c r="I379">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C380">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D380">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E380">
+        <v>0.39</v>
+      </c>
+      <c r="F380">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G380">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="H380">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I380">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C381">
+        <v>0.09</v>
+      </c>
+      <c r="D381">
+        <v>0.151</v>
+      </c>
+      <c r="E381">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F381">
+        <v>0.185</v>
+      </c>
+      <c r="G381">
+        <v>0.113</v>
+      </c>
+      <c r="H381">
+        <v>0.186</v>
+      </c>
+      <c r="I381">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C382">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D382">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E382">
+        <v>0.157</v>
+      </c>
+      <c r="F382">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G382">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H382">
+        <v>0.121</v>
+      </c>
+      <c r="I382">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>232</v>
+      </c>
+      <c r="B383">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C383">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D383">
+        <v>0.436</v>
+      </c>
+      <c r="E383">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F383">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G383">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H383">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I383">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C384">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D384">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E384">
+        <v>2E-3</v>
+      </c>
+      <c r="F384">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G384">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H384">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I384">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C385">
+        <v>0.436</v>
+      </c>
+      <c r="D385">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E385">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F385">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G385">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H385">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I385">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C386">
+        <v>0.105</v>
+      </c>
+      <c r="D386">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E386">
+        <v>0.216</v>
+      </c>
+      <c r="F386">
+        <v>0.125</v>
+      </c>
+      <c r="G386">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H386">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I386">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.09</v>
+      </c>
+      <c r="C387">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D387">
+        <v>0.374</v>
+      </c>
+      <c r="E387">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F387">
+        <v>0.111</v>
+      </c>
+      <c r="G387">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H387">
+        <v>0.05</v>
+      </c>
+      <c r="I387">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C388">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D388">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E388">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F388">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G388">
+        <v>0.123</v>
+      </c>
+      <c r="H388">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I388">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C389">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D389">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E389">
+        <v>0.125</v>
+      </c>
+      <c r="F389">
+        <v>0.123</v>
+      </c>
+      <c r="G389">
+        <v>0.09</v>
+      </c>
+      <c r="H389">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I389">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C390">
+        <v>0.219</v>
+      </c>
+      <c r="D390">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E390">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F390">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G390">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H390">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I390">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.113</v>
+      </c>
+      <c r="C391">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D391">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E391">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F391">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G391">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H391">
+        <v>0.129</v>
+      </c>
+      <c r="I391">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>208</v>
+      </c>
+      <c r="B392">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="C392">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D392">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E392">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F392">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G392">
+        <v>0.11</v>
+      </c>
+      <c r="H392">
+        <v>0.129</v>
+      </c>
+      <c r="I392">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>390</v>
+      </c>
+      <c r="B393">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C393">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D393">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E393">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F393">
+        <v>0.04</v>
+      </c>
+      <c r="G393">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H393">
+        <v>0.01</v>
+      </c>
+      <c r="I393">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>391</v>
+      </c>
+      <c r="B394">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C394">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D394">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E394">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F394">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G394">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H394">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I394">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>392</v>
+      </c>
+      <c r="B395">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C395">
+        <v>0.107</v>
+      </c>
+      <c r="D395">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E395">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F395">
+        <v>0.153</v>
+      </c>
+      <c r="G395">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H395">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I395">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>393</v>
+      </c>
+      <c r="B396">
+        <v>0.106</v>
+      </c>
+      <c r="C396">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D396">
+        <v>0.248</v>
+      </c>
+      <c r="E396">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F396">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G396">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H396">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I396">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>394</v>
+      </c>
+      <c r="B397">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C397">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D397">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E397">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F397">
+        <v>2E-3</v>
+      </c>
+      <c r="G397">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H397">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I397">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>395</v>
+      </c>
+      <c r="B398">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C398">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D398">
+        <v>0.245</v>
+      </c>
+      <c r="E398">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F398">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G398">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H398">
+        <v>0.08</v>
+      </c>
+      <c r="I398">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>121</v>
+      </c>
+      <c r="B399">
+        <v>0.109</v>
+      </c>
+      <c r="C399">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D399">
+        <v>0.106</v>
+      </c>
+      <c r="E399">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F399">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G399">
+        <v>0.124</v>
+      </c>
+      <c r="H399">
+        <v>0.12</v>
+      </c>
+      <c r="I399">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>396</v>
+      </c>
+      <c r="B400">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C400">
+        <v>0.107</v>
+      </c>
+      <c r="D400">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E400">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F400">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G400">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H400">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I400">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>397</v>
+      </c>
+      <c r="B401">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C401">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D401">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E401">
+        <v>0.122</v>
+      </c>
+      <c r="F401">
+        <v>0.219</v>
+      </c>
+      <c r="G401">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H401">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I401">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>398</v>
+      </c>
+      <c r="B402">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C402">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D402">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E402">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F402">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G402">
+        <v>0.05</v>
+      </c>
+      <c r="H402">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I402">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>399</v>
+      </c>
+      <c r="B403">
+        <v>0.109</v>
+      </c>
+      <c r="C403">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D403">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E403">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F403">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G403">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H403">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I403">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>400</v>
+      </c>
+      <c r="B404">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C404">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D404">
+        <v>0.02</v>
+      </c>
+      <c r="E404">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F404">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G404">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="H404">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I404">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>401</v>
+      </c>
+      <c r="B405">
+        <v>0.129</v>
+      </c>
+      <c r="C405">
+        <v>0.158</v>
+      </c>
+      <c r="D405">
+        <v>0.115</v>
+      </c>
+      <c r="E405">
+        <v>0.126</v>
+      </c>
+      <c r="F405">
+        <v>0.125</v>
+      </c>
+      <c r="G405">
+        <v>0.113</v>
+      </c>
+      <c r="H405">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I405">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>402</v>
+      </c>
+      <c r="B406">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C406">
+        <v>0.248</v>
+      </c>
+      <c r="D406">
+        <v>0.115</v>
+      </c>
+      <c r="E406">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F406">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G406">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H406">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I406">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>251</v>
+      </c>
+      <c r="B407">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C407">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D407">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E407">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F407">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G407">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H407">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I407">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>403</v>
+      </c>
+      <c r="B408">
+        <v>0.72</v>
+      </c>
+      <c r="C408">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D408">
+        <v>0.03</v>
+      </c>
+      <c r="E408">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F408">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G408">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H408">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I408">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>404</v>
+      </c>
+      <c r="B409">
+        <v>0.123</v>
+      </c>
+      <c r="C409">
+        <v>0.129</v>
+      </c>
+      <c r="D409">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E409">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F409">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G409">
+        <v>0.106</v>
+      </c>
+      <c r="H409">
+        <v>0.106</v>
+      </c>
+      <c r="I409">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>405</v>
+      </c>
+      <c r="B410">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C410">
+        <v>0.12</v>
+      </c>
+      <c r="D410">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E410">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F410">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G410">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H410">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I410">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>406</v>
+      </c>
+      <c r="B411">
+        <v>0.16</v>
+      </c>
+      <c r="C411">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D411">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E411">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F411">
+        <v>0.08</v>
+      </c>
+      <c r="G411">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H411">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I411">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>407</v>
+      </c>
+      <c r="B412">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C412">
+        <v>0.128</v>
+      </c>
+      <c r="D412">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E412">
+        <v>0.06</v>
+      </c>
+      <c r="F412">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G412">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H412">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I412">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>408</v>
+      </c>
+      <c r="B413">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C413">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D413">
+        <v>0.108</v>
+      </c>
+      <c r="E413">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F413">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G413">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H413">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I413">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>409</v>
+      </c>
+      <c r="B414">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C414">
+        <v>0.221</v>
+      </c>
+      <c r="D414">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E414">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F414">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G414">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H414">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I414">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>410</v>
+      </c>
+      <c r="B415">
+        <v>0.08</v>
+      </c>
+      <c r="C415">
+        <v>0.05</v>
+      </c>
+      <c r="D415">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E415">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F415">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G415">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H415">
+        <v>0.109</v>
+      </c>
+      <c r="I415">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>411</v>
+      </c>
+      <c r="B416">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C416">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D416">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E416">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F416">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G416">
+        <v>0.114</v>
+      </c>
+      <c r="H416">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I416">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>412</v>
+      </c>
+      <c r="B417">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C417">
+        <v>0.222</v>
+      </c>
+      <c r="D417">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E417">
+        <v>0.114</v>
+      </c>
+      <c r="F417">
+        <v>0.109</v>
+      </c>
+      <c r="G417">
+        <v>0.183</v>
+      </c>
+      <c r="H417">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I417">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>413</v>
+      </c>
+      <c r="B418">
+        <v>0.115</v>
+      </c>
+      <c r="C418">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D418">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E418">
+        <v>0.105</v>
+      </c>
+      <c r="F418">
+        <v>0.154</v>
+      </c>
+      <c r="G418">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H418">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I418">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>414</v>
+      </c>
+      <c r="B419">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C419">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D419">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E419">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F419">
+        <v>0.104</v>
+      </c>
+      <c r="G419">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H419">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I419">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>415</v>
+      </c>
+      <c r="B420">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C420">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D420">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E420">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F420">
+        <v>0.112</v>
+      </c>
+      <c r="G420">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H420">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="I420">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>416</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>2E-3</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>0.996</v>
+      </c>
+      <c r="F421">
+        <v>1E-3</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>417</v>
+      </c>
+      <c r="B422">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C422">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D422">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E422">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="F422">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G422">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H422">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I422">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>418</v>
+      </c>
+      <c r="B423">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C423">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D423">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E423">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F423">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G423">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H423">
+        <v>0.08</v>
+      </c>
+      <c r="I423">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>419</v>
+      </c>
+      <c r="B424">
+        <v>0.125</v>
+      </c>
+      <c r="C424">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D424">
+        <v>0.245</v>
+      </c>
+      <c r="E424">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F424">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G424">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H424">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I424">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>420</v>
+      </c>
+      <c r="B425">
+        <v>0.106</v>
+      </c>
+      <c r="C425">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D425">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E425">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F425">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G425">
+        <v>0.13</v>
+      </c>
+      <c r="H425">
+        <v>0.156</v>
+      </c>
+      <c r="I425">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>421</v>
+      </c>
+      <c r="B426">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C426">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D426">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E426">
+        <v>0.113</v>
+      </c>
+      <c r="F426">
+        <v>0.107</v>
+      </c>
+      <c r="G426">
+        <v>0.221</v>
+      </c>
+      <c r="H426">
+        <v>0.104</v>
+      </c>
+      <c r="I426">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>422</v>
+      </c>
+      <c r="B427">
+        <v>0.115</v>
+      </c>
+      <c r="C427">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D427">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E427">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F427">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G427">
+        <v>0.123</v>
+      </c>
+      <c r="H427">
+        <v>0.106</v>
+      </c>
+      <c r="I427">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>423</v>
+      </c>
+      <c r="B428">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C428">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D428">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E428">
+        <v>0.104</v>
+      </c>
+      <c r="F428">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G428">
+        <v>0.104</v>
+      </c>
+      <c r="H428">
+        <v>0.12</v>
+      </c>
+      <c r="I428">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>424</v>
+      </c>
+      <c r="B429">
+        <v>0.01</v>
+      </c>
+      <c r="C429">
+        <v>0.01</v>
+      </c>
+      <c r="D429">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E429">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F429">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G429">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H429">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I429">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>425</v>
+      </c>
+      <c r="B430">
+        <v>0.255</v>
+      </c>
+      <c r="C430">
+        <v>0.125</v>
+      </c>
+      <c r="D430">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E430">
+        <v>0.114</v>
+      </c>
+      <c r="F430">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G430">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H430">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I430">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>426</v>
+      </c>
+      <c r="B431">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C431">
+        <v>0.106</v>
+      </c>
+      <c r="D431">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E431">
+        <v>0.06</v>
+      </c>
+      <c r="F431">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G431">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H431">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I431">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>427</v>
+      </c>
+      <c r="B432">
+        <v>0.109</v>
+      </c>
+      <c r="C432">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D432">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E432">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F432">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G432">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H432">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I432">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>428</v>
+      </c>
+      <c r="B433">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C433">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D433">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E433">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F433">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G433">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H433">
+        <v>0.08</v>
+      </c>
+      <c r="I433">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>429</v>
+      </c>
+      <c r="B434">
+        <v>0.192</v>
+      </c>
+      <c r="C434">
+        <v>0.152</v>
+      </c>
+      <c r="D434">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E434">
+        <v>0.151</v>
+      </c>
+      <c r="F434">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G434">
+        <v>0.155</v>
+      </c>
+      <c r="H434">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I434">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>430</v>
+      </c>
+      <c r="B435">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C435">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D435">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E435">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F435">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G435">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H435">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I435">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>431</v>
+      </c>
+      <c r="B436">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C436">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D436">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E436">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F436">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G436">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H436">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I436">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>432</v>
+      </c>
+      <c r="B437">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C437">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D437">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E437">
+        <v>0.09</v>
+      </c>
+      <c r="F437">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G437">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H437">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I437">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>433</v>
+      </c>
+      <c r="B438">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C438">
+        <v>0.113</v>
+      </c>
+      <c r="D438">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E438">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F438">
+        <v>0.442</v>
+      </c>
+      <c r="G438">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H438">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I438">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>434</v>
+      </c>
+      <c r="B439">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C439">
+        <v>0.01</v>
+      </c>
+      <c r="D439">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E439">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F439">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G439">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H439">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I439">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>435</v>
+      </c>
+      <c r="B440">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C440">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D440">
+        <v>0.121</v>
+      </c>
+      <c r="E440">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F440">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G440">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H440">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I440">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>436</v>
+      </c>
+      <c r="B441">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C441">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D441">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E441">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F441">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G441">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H441">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I441">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>437</v>
+      </c>
+      <c r="B442">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C442">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D442">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E442">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F442">
+        <v>0.1</v>
+      </c>
+      <c r="G442">
+        <v>0.113</v>
+      </c>
+      <c r="H442">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I442">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>438</v>
+      </c>
+      <c r="B443">
+        <v>0.1</v>
+      </c>
+      <c r="C443">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D443">
+        <v>0.126</v>
+      </c>
+      <c r="E443">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F443">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G443">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H443">
+        <v>0.05</v>
+      </c>
+      <c r="I443">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>439</v>
+      </c>
+      <c r="B444">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C444">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D444">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E444">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F444">
+        <v>0.113</v>
+      </c>
+      <c r="G444">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H444">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I444">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>440</v>
+      </c>
+      <c r="B445">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C445">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D445">
+        <v>0.02</v>
+      </c>
+      <c r="E445">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F445">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G445">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H445">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I445">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>441</v>
+      </c>
+      <c r="B446">
+        <v>0.129</v>
+      </c>
+      <c r="C446">
+        <v>0.128</v>
+      </c>
+      <c r="D446">
+        <v>0.114</v>
+      </c>
+      <c r="E446">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F446">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G446">
+        <v>0.127</v>
+      </c>
+      <c r="H446">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I446">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>442</v>
+      </c>
+      <c r="B447">
+        <v>0.108</v>
+      </c>
+      <c r="C447">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D447">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E447">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F447">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G447">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H447">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I447">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>443</v>
+      </c>
+      <c r="B448">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C448">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D448">
+        <v>0.32</v>
+      </c>
+      <c r="E448">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F448">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G448">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H448">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I448">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>444</v>
+      </c>
+      <c r="B449">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C449">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D449">
+        <v>0.217</v>
+      </c>
+      <c r="E449">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F449">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G449">
+        <v>0.192</v>
+      </c>
+      <c r="H449">
+        <v>0.121</v>
+      </c>
+      <c r="I449">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>445</v>
+      </c>
+      <c r="B450">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C450">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D450">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E450">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F450">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G450">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H450">
+        <v>0.02</v>
+      </c>
+      <c r="I450">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>446</v>
+      </c>
+      <c r="B451">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C451">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D451">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E451">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F451">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G451">
+        <v>0.128</v>
+      </c>
+      <c r="H451">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I451">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>447</v>
+      </c>
+      <c r="B452">
+        <v>0.191</v>
+      </c>
+      <c r="C452">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D452">
+        <v>0.221</v>
+      </c>
+      <c r="E452">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F452">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G452">
+        <v>0.108</v>
+      </c>
+      <c r="H452">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I452">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>448</v>
+      </c>
+      <c r="B453">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C453">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D453">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E453">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F453">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G453">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H453">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I453">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>449</v>
+      </c>
+      <c r="B454">
+        <v>0.111</v>
+      </c>
+      <c r="C454">
+        <v>0.127</v>
+      </c>
+      <c r="D454">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E454">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F454">
+        <v>0.216</v>
+      </c>
+      <c r="G454">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H454">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I454">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>450</v>
+      </c>
+      <c r="B455">
+        <v>0.01</v>
+      </c>
+      <c r="C455">
+        <v>0.876</v>
+      </c>
+      <c r="D455">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E455">
+        <v>0.01</v>
+      </c>
+      <c r="F455">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G455">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H455">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I455">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>451</v>
+      </c>
+      <c r="B456">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C456">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D456">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E456">
+        <v>0.443</v>
+      </c>
+      <c r="F456">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G456">
+        <v>0.108</v>
+      </c>
+      <c r="H456">
+        <v>0.159</v>
+      </c>
+      <c r="I456">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>452</v>
+      </c>
+      <c r="B457">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C457">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D457">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E457">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F457">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G457">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H457">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I457">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>453</v>
+      </c>
+      <c r="B458">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C458">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D458">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E458">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F458">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G458">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H458">
+        <v>2E-3</v>
+      </c>
+      <c r="I458">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>454</v>
+      </c>
+      <c r="B459">
+        <v>0.104</v>
+      </c>
+      <c r="C459">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D459">
+        <v>0.111</v>
+      </c>
+      <c r="E459">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F459">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G459">
+        <v>0.15</v>
+      </c>
+      <c r="H459">
+        <v>0.114</v>
+      </c>
+      <c r="I459">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>61</v>
+      </c>
+      <c r="B460">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C460">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D460">
+        <v>0.01</v>
+      </c>
+      <c r="E460">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F460">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G460">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H460">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I460">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>455</v>
+      </c>
+      <c r="B461">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C461">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D461">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E461">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F461">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G461">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H461">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I461">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>456</v>
+      </c>
+      <c r="B462">
+        <v>0.111</v>
+      </c>
+      <c r="C462">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D462">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E462">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F462">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G462">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H462">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I462">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>457</v>
+      </c>
+      <c r="B463">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C463">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D463">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E463">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F463">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G463">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H463">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I463">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>458</v>
+      </c>
+      <c r="B464">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="C464">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D464">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E464">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F464">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G464">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H464">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I464">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>459</v>
+      </c>
+      <c r="B465">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C465">
+        <v>0.189</v>
+      </c>
+      <c r="D465">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E465">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F465">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G465">
+        <v>0.08</v>
+      </c>
+      <c r="H465">
+        <v>0.18</v>
+      </c>
+      <c r="I465">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>460</v>
+      </c>
+      <c r="B466">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C466">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D466">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E466">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F466">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G466">
+        <v>0.74</v>
+      </c>
+      <c r="H466">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I466">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>461</v>
+      </c>
+      <c r="B467">
+        <v>0.155</v>
+      </c>
+      <c r="C467">
+        <v>0.106</v>
+      </c>
+      <c r="D467">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E467">
+        <v>0.12</v>
+      </c>
+      <c r="F467">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G467">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H467">
+        <v>0.104</v>
+      </c>
+      <c r="I467">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>462</v>
+      </c>
+      <c r="B468">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C468">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D468">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E468">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F468">
+        <v>0.01</v>
+      </c>
+      <c r="G468">
+        <v>0.434</v>
+      </c>
+      <c r="H468">
+        <v>0.05</v>
+      </c>
+      <c r="I468">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>463</v>
+      </c>
+      <c r="B469">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C469">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D469">
+        <v>0.107</v>
+      </c>
+      <c r="E469">
+        <v>0.157</v>
+      </c>
+      <c r="F469">
+        <v>0.255</v>
+      </c>
+      <c r="G469">
+        <v>0.121</v>
+      </c>
+      <c r="H469">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I469">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>464</v>
+      </c>
+      <c r="B470">
+        <v>0.111</v>
+      </c>
+      <c r="C470">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D470">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E470">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F470">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G470">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H470">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I470">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>465</v>
+      </c>
+      <c r="B471">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C471">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D471">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E471">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F471">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G471">
+        <v>0.02</v>
+      </c>
+      <c r="H471">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="I471">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>466</v>
+      </c>
+      <c r="B472">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C472">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D472">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E472">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F472">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G472">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H472">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I472">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>467</v>
+      </c>
+      <c r="B473">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C473">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D473">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E473">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F473">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G473">
+        <v>0.02</v>
+      </c>
+      <c r="H473">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I473">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>468</v>
+      </c>
+      <c r="B474">
+        <v>0.126</v>
+      </c>
+      <c r="C474">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D474">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E474">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F474">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G474">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H474">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I474">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>469</v>
+      </c>
+      <c r="B475">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C475">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D475">
+        <v>0.218</v>
+      </c>
+      <c r="E475">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F475">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G475">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H475">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I475">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>470</v>
+      </c>
+      <c r="B476">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C476">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D476">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E476">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F476">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G476">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H476">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I476">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>471</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>472</v>
+      </c>
+      <c r="B478">
+        <v>0.125</v>
+      </c>
+      <c r="C478">
+        <v>0.125</v>
+      </c>
+      <c r="D478">
+        <v>0.125</v>
+      </c>
+      <c r="E478">
+        <v>0.125</v>
+      </c>
+      <c r="F478">
+        <v>0.125</v>
+      </c>
+      <c r="G478">
+        <v>0.125</v>
+      </c>
+      <c r="H478">
+        <v>0.125</v>
+      </c>
+      <c r="I478">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>473</v>
+      </c>
+      <c r="B479">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C479">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D479">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E479">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F479">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G479">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H479">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I479">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>474</v>
+      </c>
+      <c r="B480">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C480">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D480">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E480">
+        <v>1E-3</v>
+      </c>
+      <c r="F480">
+        <v>2E-3</v>
+      </c>
+      <c r="G480">
+        <v>1E-3</v>
+      </c>
+      <c r="H480">
+        <v>2E-3</v>
+      </c>
+      <c r="I480">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>475</v>
+      </c>
+      <c r="B481">
+        <v>1E-3</v>
+      </c>
+      <c r="C481">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D481">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E481">
+        <v>1E-3</v>
+      </c>
+      <c r="F481">
+        <v>1E-3</v>
+      </c>
+      <c r="G481">
+        <v>1E-3</v>
+      </c>
+      <c r="H481">
+        <v>1E-3</v>
+      </c>
+      <c r="I481">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>476</v>
+      </c>
+      <c r="B482">
+        <v>1E-3</v>
+      </c>
+      <c r="C482">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D482">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E482">
+        <v>1E-3</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>1E-3</v>
+      </c>
+      <c r="H482">
+        <v>1E-3</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>477</v>
+      </c>
+      <c r="B483">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C483">
+        <v>0.317</v>
+      </c>
+      <c r="D483">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E483">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F483">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G483">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H483">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I483">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>478</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0.997</v>
+      </c>
+      <c r="D484">
+        <v>1E-3</v>
+      </c>
+      <c r="E484">
+        <v>1E-3</v>
+      </c>
+      <c r="F484">
+        <v>1E-3</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>479</v>
+      </c>
+      <c r="B485">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C485">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D485">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E485">
+        <v>0.01</v>
+      </c>
+      <c r="F485">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G485">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H485">
+        <v>0.01</v>
+      </c>
+      <c r="I485">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>480</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>481</v>
+      </c>
+      <c r="B487">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C487">
+        <v>0.02</v>
+      </c>
+      <c r="D487">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E487">
+        <v>0.745</v>
+      </c>
+      <c r="F487">
+        <v>0.03</v>
+      </c>
+      <c r="G487">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H487">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I487">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>482</v>
+      </c>
+      <c r="B488">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C488">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D488">
+        <v>0.113</v>
+      </c>
+      <c r="E488">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F488">
+        <v>0.311</v>
+      </c>
+      <c r="G488">
+        <v>0.106</v>
+      </c>
+      <c r="H488">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I488">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>483</v>
+      </c>
+      <c r="B489">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C489">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D489">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E489">
+        <v>0.107</v>
+      </c>
+      <c r="F489">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G489">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H489">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I489">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>484</v>
+      </c>
+      <c r="B490">
+        <v>0.108</v>
+      </c>
+      <c r="C490">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D490">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E490">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F490">
+        <v>0.153</v>
+      </c>
+      <c r="G490">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H490">
+        <v>0.16</v>
+      </c>
+      <c r="I490">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>485</v>
+      </c>
+      <c r="B491">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C491">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D491">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E491">
+        <v>0.127</v>
+      </c>
+      <c r="F491">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G491">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H491">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I491">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nodejs/seeds/result.xlsx
+++ b/nodejs/seeds/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMX FILE\utem_degree\year2sem2\workshop2\build_goal_web\nodejs\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6FA622-01AB-424D-8EB0-52D8EAAB743F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652A16E-C334-492D-8926-2BCD90C9DFA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="4836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="540">
   <si>
     <t>Label</t>
   </si>
@@ -1478,6 +1478,168 @@
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Digital Media</t>
+  </si>
+  <si>
+    <t>Digital Design</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Exhibition</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>Outdoor Market</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Robotic</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Showcase</t>
+  </si>
+  <si>
+    <t>Part time</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Job Vacancy</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Lorry</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Infographic</t>
   </si>
 </sst>
 </file>
@@ -2318,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="F255" sqref="F255"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A492" sqref="A492:I546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16565,6 +16727,1601 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>486</v>
+      </c>
+      <c r="B492">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C492">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D492">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E492">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F492">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G492">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H492">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I492">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>487</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>0.999</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>488</v>
+      </c>
+      <c r="B494">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C494">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D494">
+        <v>0.04</v>
+      </c>
+      <c r="E494">
+        <v>0.04</v>
+      </c>
+      <c r="F494">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G494">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H494">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I494">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>489</v>
+      </c>
+      <c r="B495">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C495">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D495">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E495">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F495">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G495">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H495">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I495">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>490</v>
+      </c>
+      <c r="B496">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C496">
+        <v>0.04</v>
+      </c>
+      <c r="D496">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E496">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F496">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G496">
+        <v>0.03</v>
+      </c>
+      <c r="H496">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I496">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>491</v>
+      </c>
+      <c r="B497">
+        <v>0.1</v>
+      </c>
+      <c r="C497">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D497">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E497">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F497">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G497">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H497">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I497">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>492</v>
+      </c>
+      <c r="B498">
+        <v>0.106</v>
+      </c>
+      <c r="C498">
+        <v>0.13</v>
+      </c>
+      <c r="D498">
+        <v>0.05</v>
+      </c>
+      <c r="E498">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F498">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G498">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H498">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I498">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>493</v>
+      </c>
+      <c r="B499">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C499">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D499">
+        <v>0.08</v>
+      </c>
+      <c r="E499">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F499">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G499">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="H499">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I499">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>494</v>
+      </c>
+      <c r="B500">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C500">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D500">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E500">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F500">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G500">
+        <v>0.04</v>
+      </c>
+      <c r="H500">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I500">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>495</v>
+      </c>
+      <c r="B501">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C501">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D501">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E501">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F501">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G501">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H501">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I501">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>496</v>
+      </c>
+      <c r="B502">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C502">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D502">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E502">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F502">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G502">
+        <v>0.01</v>
+      </c>
+      <c r="H502">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I502">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>0</v>
+      </c>
+      <c r="B503">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C503">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D503">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E503">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F503">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G503">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H503">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I503">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>497</v>
+      </c>
+      <c r="B504">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C504">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D504">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E504">
+        <v>0.11</v>
+      </c>
+      <c r="F504">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G504">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H504">
+        <v>0.129</v>
+      </c>
+      <c r="I504">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>498</v>
+      </c>
+      <c r="B505">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C505">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D505">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E505">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F505">
+        <v>0.122</v>
+      </c>
+      <c r="G505">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H505">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I505">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>499</v>
+      </c>
+      <c r="B506">
+        <v>0.26</v>
+      </c>
+      <c r="C506">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D506">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E506">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F506">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G506">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H506">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I506">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>500</v>
+      </c>
+      <c r="B507">
+        <v>0.156</v>
+      </c>
+      <c r="C507">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D507">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E507">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F507">
+        <v>0.371</v>
+      </c>
+      <c r="G507">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H507">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I507">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>501</v>
+      </c>
+      <c r="B508">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C508">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D508">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E508">
+        <v>0.255</v>
+      </c>
+      <c r="F508">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G508">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H508">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I508">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>502</v>
+      </c>
+      <c r="B509">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C509">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D509">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E509">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F509">
+        <v>0.01</v>
+      </c>
+      <c r="G509">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H509">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I509">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>503</v>
+      </c>
+      <c r="B510">
+        <v>0.05</v>
+      </c>
+      <c r="C510">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D510">
+        <v>0.498</v>
+      </c>
+      <c r="E510">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F510">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G510">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H510">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I510">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>504</v>
+      </c>
+      <c r="B511">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C511">
+        <v>0.124</v>
+      </c>
+      <c r="D511">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E511">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F511">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G511">
+        <v>0.214</v>
+      </c>
+      <c r="H511">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I511">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>505</v>
+      </c>
+      <c r="B512">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C512">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D512">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E512">
+        <v>0.1</v>
+      </c>
+      <c r="F512">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G512">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H512">
+        <v>0.192</v>
+      </c>
+      <c r="I512">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>506</v>
+      </c>
+      <c r="B513">
+        <v>0.08</v>
+      </c>
+      <c r="C513">
+        <v>0.19</v>
+      </c>
+      <c r="D513">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E513">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F513">
+        <v>0.112</v>
+      </c>
+      <c r="G513">
+        <v>0.124</v>
+      </c>
+      <c r="H513">
+        <v>0.114</v>
+      </c>
+      <c r="I513">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>507</v>
+      </c>
+      <c r="B514">
+        <v>0.191</v>
+      </c>
+      <c r="C514">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D514">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E514">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F514">
+        <v>0.161</v>
+      </c>
+      <c r="G514">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H514">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I514">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>508</v>
+      </c>
+      <c r="B515">
+        <v>0.122</v>
+      </c>
+      <c r="C515">
+        <v>0.113</v>
+      </c>
+      <c r="D515">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E515">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F515">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G515">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H515">
+        <v>0.115</v>
+      </c>
+      <c r="I515">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>509</v>
+      </c>
+      <c r="B516">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C516">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D516">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E516">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F516">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G516">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H516">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I516">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>510</v>
+      </c>
+      <c r="B517">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C517">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D517">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E517">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F517">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G517">
+        <v>0.11</v>
+      </c>
+      <c r="H517">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I517">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>511</v>
+      </c>
+      <c r="B518">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C518">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D518">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E518">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F518">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G518">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H518">
+        <v>0.02</v>
+      </c>
+      <c r="I518">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>512</v>
+      </c>
+      <c r="B519">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C519">
+        <v>0.112</v>
+      </c>
+      <c r="D519">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E519">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F519">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G519">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H519">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I519">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>513</v>
+      </c>
+      <c r="B520">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C520">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D520">
+        <v>0.104</v>
+      </c>
+      <c r="E520">
+        <v>0.314</v>
+      </c>
+      <c r="F520">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G520">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H520">
+        <v>0.109</v>
+      </c>
+      <c r="I520">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>514</v>
+      </c>
+      <c r="B521">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C521">
+        <v>1E-3</v>
+      </c>
+      <c r="D521">
+        <v>1E-3</v>
+      </c>
+      <c r="E521">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F521">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G521">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H521">
+        <v>1E-3</v>
+      </c>
+      <c r="I521">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>515</v>
+      </c>
+      <c r="B522">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C522">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D522">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E522">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F522">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G522">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H522">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I522">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>516</v>
+      </c>
+      <c r="B523">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C523">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D523">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E523">
+        <v>0.01</v>
+      </c>
+      <c r="F523">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G523">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H523">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I523">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>517</v>
+      </c>
+      <c r="B524">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C524">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D524">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E524">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F524">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G524">
+        <v>0.1</v>
+      </c>
+      <c r="H524">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I524">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>518</v>
+      </c>
+      <c r="B525">
+        <v>0.151</v>
+      </c>
+      <c r="C525">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D525">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E525">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F525">
+        <v>0.126</v>
+      </c>
+      <c r="G525">
+        <v>0.157</v>
+      </c>
+      <c r="H525">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I525">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>519</v>
+      </c>
+      <c r="B526">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C526">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D526">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E526">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F526">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G526">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H526">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I526">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>520</v>
+      </c>
+      <c r="B527">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C527">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D527">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E527">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F527">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G527">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H527">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I527">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>521</v>
+      </c>
+      <c r="B528">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C528">
+        <v>0.108</v>
+      </c>
+      <c r="D528">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E528">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F528">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G528">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H528">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I528">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>522</v>
+      </c>
+      <c r="B529">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C529">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D529">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E529">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F529">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G529">
+        <v>0.05</v>
+      </c>
+      <c r="H529">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I529">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>523</v>
+      </c>
+      <c r="B530">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C530">
+        <v>0.121</v>
+      </c>
+      <c r="D530">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E530">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F530">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G530">
+        <v>0.03</v>
+      </c>
+      <c r="H530">
+        <v>0.03</v>
+      </c>
+      <c r="I530">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>524</v>
+      </c>
+      <c r="B531">
+        <v>0.12</v>
+      </c>
+      <c r="C531">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D531">
+        <v>0.125</v>
+      </c>
+      <c r="E531">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F531">
+        <v>0.159</v>
+      </c>
+      <c r="G531">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H531">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I531">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>525</v>
+      </c>
+      <c r="B532">
+        <v>0.161</v>
+      </c>
+      <c r="C532">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D532">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E532">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F532">
+        <v>0.253</v>
+      </c>
+      <c r="G532">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H532">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I532">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>526</v>
+      </c>
+      <c r="B533">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C533">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D533">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E533">
+        <v>0.107</v>
+      </c>
+      <c r="F533">
+        <v>0.113</v>
+      </c>
+      <c r="G533">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H533">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I533">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>527</v>
+      </c>
+      <c r="B534">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C534">
+        <v>0.06</v>
+      </c>
+      <c r="D534">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E534">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F534">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G534">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H534">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I534">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>528</v>
+      </c>
+      <c r="B535">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C535">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D535">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E535">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F535">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G535">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H535">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I535">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>529</v>
+      </c>
+      <c r="B536">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C536">
+        <v>0.2</v>
+      </c>
+      <c r="D536">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E536">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F536">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G536">
+        <v>0.126</v>
+      </c>
+      <c r="H536">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I536">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>530</v>
+      </c>
+      <c r="B537">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C537">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D537">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E537">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F537">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G537">
+        <v>0.107</v>
+      </c>
+      <c r="H537">
+        <v>0.122</v>
+      </c>
+      <c r="I537">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>531</v>
+      </c>
+      <c r="B538">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C538">
+        <v>2E-3</v>
+      </c>
+      <c r="D538">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E538">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F538">
+        <v>2E-3</v>
+      </c>
+      <c r="G538">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H538">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I538">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>532</v>
+      </c>
+      <c r="B539">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C539">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D539">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E539">
+        <v>0.113</v>
+      </c>
+      <c r="F539">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G539">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H539">
+        <v>0.114</v>
+      </c>
+      <c r="I539">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>533</v>
+      </c>
+      <c r="B540">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C540">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D540">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E540">
+        <v>0.111</v>
+      </c>
+      <c r="F540">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G540">
+        <v>0.114</v>
+      </c>
+      <c r="H540">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I540">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>534</v>
+      </c>
+      <c r="B541">
+        <v>1E-3</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F541">
+        <v>1E-3</v>
+      </c>
+      <c r="G541">
+        <v>2E-3</v>
+      </c>
+      <c r="H541">
+        <v>1E-3</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>535</v>
+      </c>
+      <c r="B542">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C542">
+        <v>1E-3</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="E542">
+        <v>1E-3</v>
+      </c>
+      <c r="F542">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G542">
+        <v>2E-3</v>
+      </c>
+      <c r="H542">
+        <v>1E-3</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>536</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+      <c r="H543">
+        <v>1</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>537</v>
+      </c>
+      <c r="B544">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C544">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D544">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E544">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F544">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G544">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H544">
+        <v>0.129</v>
+      </c>
+      <c r="I544">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>538</v>
+      </c>
+      <c r="B545">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C545">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D545">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E545">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F545">
+        <v>0.09</v>
+      </c>
+      <c r="G545">
+        <v>0.155</v>
+      </c>
+      <c r="H545">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I545">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>539</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
